--- a/code/Query status update methodology.xlsx
+++ b/code/Query status update methodology.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>old status</t>
   </si>
@@ -73,12 +73,15 @@
   </si>
   <si>
     <t>* cancel also require Comment!=""</t>
+  </si>
+  <si>
+    <t>This table is not read by do file. It describe how do files update the query status between each time the do files are run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,145 +440,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -587,9 +563,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -619,9 +595,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -651,8 +627,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
